--- a/ExcelSheet/Mapping Sheet.xlsx
+++ b/ExcelSheet/Mapping Sheet.xlsx
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,16 +86,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,8 +108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,23 +131,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,21 +167,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,9 +178,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,40 +224,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,31 +239,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,67 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,67 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,16 +434,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,15 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,6 +483,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,25 +517,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,130 +553,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,11 +1006,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
   </cols>
